--- a/تدریس آردینو.xlsx
+++ b/تدریس آردینو.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="6 انواع متغیر ها" sheetId="10" r:id="rId2"/>
-    <sheet name="5 دکمه" sheetId="9" r:id="rId3"/>
-    <sheet name="4 مقدمه ای بر سریال" sheetId="11" r:id="rId4"/>
-    <sheet name="3 ترانزیستو و رله " sheetId="4" r:id="rId5"/>
-    <sheet name="2 چشمک زن " sheetId="3" r:id="rId6"/>
-    <sheet name="1 معرفی آردینو " sheetId="2" r:id="rId7"/>
-    <sheet name="پیش نیاز" sheetId="7" r:id="rId8"/>
-    <sheet name="مدار منطقی" sheetId="8" r:id="rId9"/>
+    <sheet name="سرو" sheetId="14" r:id="rId2"/>
+    <sheet name="موتور دی سی دو" sheetId="13" r:id="rId3"/>
+    <sheet name="موتور دی سی یک" sheetId="12" r:id="rId4"/>
+    <sheet name="6 انواع متغیر ها" sheetId="10" r:id="rId5"/>
+    <sheet name="5 دکمه" sheetId="9" r:id="rId6"/>
+    <sheet name="4 مقدمه ای بر سریال" sheetId="11" r:id="rId7"/>
+    <sheet name="3 ترانزیستو و رله " sheetId="4" r:id="rId8"/>
+    <sheet name="2 چشمک زن " sheetId="3" r:id="rId9"/>
+    <sheet name="1 معرفی آردینو " sheetId="2" r:id="rId10"/>
+    <sheet name="پیش نیاز" sheetId="7" r:id="rId11"/>
+    <sheet name="مدار منطقی" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="182">
   <si>
     <t>معرفی اردینو</t>
   </si>
@@ -298,9 +301,6 @@
     <t>موارد استفاده</t>
   </si>
   <si>
-    <t>مدار تغزیه</t>
-  </si>
-  <si>
     <t>دلیل وجود</t>
   </si>
   <si>
@@ -527,6 +527,60 @@
   </si>
   <si>
     <t>معرفی آردینو</t>
+  </si>
+  <si>
+    <t>موتور دی سی یک</t>
+  </si>
+  <si>
+    <t>موتور دی سی دو</t>
+  </si>
+  <si>
+    <t>مدار تغذیه</t>
+  </si>
+  <si>
+    <t>موتور دی سی چیست</t>
+  </si>
+  <si>
+    <t>روشن کردن موتور</t>
+  </si>
+  <si>
+    <t>Tip 122</t>
+  </si>
+  <si>
+    <t>کنترل یک جهته بدون سرعت</t>
+  </si>
+  <si>
+    <t>کنترل یک جهته با سرعت</t>
+  </si>
+  <si>
+    <t>انواع دی سی</t>
+  </si>
+  <si>
+    <t>نحوه عملکرد براش</t>
+  </si>
+  <si>
+    <t>دیود جریان برگشتی</t>
+  </si>
+  <si>
+    <t>توضیح دوباره جدایی منبع تغذیه از کنترلر</t>
+  </si>
+  <si>
+    <t>پل H</t>
+  </si>
+  <si>
+    <t>IC L298</t>
+  </si>
+  <si>
+    <t>ماژول L298</t>
+  </si>
+  <si>
+    <t>IC L293</t>
+  </si>
+  <si>
+    <t>شیلد L293</t>
+  </si>
+  <si>
+    <t>شیلد L298n</t>
   </si>
 </sst>
 </file>
@@ -883,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -899,7 +953,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -941,7 +995,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -958,7 +1012,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -969,7 +1023,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1032,6 +1086,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -1043,6 +1100,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -1054,6 +1114,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
       <c r="C13" t="s">
         <v>35</v>
       </c>
@@ -1115,17 +1178,17 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1133,379 +1196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E6"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="31.375" customWidth="1"/>
-    <col min="7" max="7" width="28.125" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1606,7 +1297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1623,19 +1314,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" t="s">
-        <v>96</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1658,47 +1349,532 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
-      </c>
-      <c r="I1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:D12"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="7" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
         <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/تدریس آردینو.xlsx
+++ b/تدریس آردینو.xlsx
@@ -13,17 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="سرو" sheetId="14" r:id="rId2"/>
-    <sheet name="موتور دی سی دو" sheetId="13" r:id="rId3"/>
-    <sheet name="موتور دی سی یک" sheetId="12" r:id="rId4"/>
-    <sheet name="6 انواع متغیر ها" sheetId="10" r:id="rId5"/>
-    <sheet name="5 دکمه" sheetId="9" r:id="rId6"/>
-    <sheet name="4 مقدمه ای بر سریال" sheetId="11" r:id="rId7"/>
-    <sheet name="3 ترانزیستو و رله " sheetId="4" r:id="rId8"/>
-    <sheet name="2 چشمک زن " sheetId="3" r:id="rId9"/>
-    <sheet name="1 معرفی آردینو " sheetId="2" r:id="rId10"/>
-    <sheet name="پیش نیاز" sheetId="7" r:id="rId11"/>
-    <sheet name="مدار منطقی" sheetId="8" r:id="rId12"/>
+    <sheet name="معرفی موتورها" sheetId="15" r:id="rId2"/>
+    <sheet name="سرو" sheetId="14" r:id="rId3"/>
+    <sheet name="موتور دی سی دو" sheetId="13" r:id="rId4"/>
+    <sheet name="موتور دی سی یک" sheetId="12" r:id="rId5"/>
+    <sheet name="6 انواع متغیر ها" sheetId="10" r:id="rId6"/>
+    <sheet name="5 دکمه" sheetId="9" r:id="rId7"/>
+    <sheet name="4 مقدمه ای بر سریال" sheetId="11" r:id="rId8"/>
+    <sheet name="3 ترانزیستو و رله " sheetId="4" r:id="rId9"/>
+    <sheet name="2 چشمک زن " sheetId="3" r:id="rId10"/>
+    <sheet name="1 معرفی آردینو " sheetId="2" r:id="rId11"/>
+    <sheet name="پیش نیاز" sheetId="7" r:id="rId12"/>
+    <sheet name="مدار منطقی" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="202">
   <si>
     <t>معرفی اردینو</t>
   </si>
@@ -581,6 +582,66 @@
   </si>
   <si>
     <t>شیلد L298n</t>
+  </si>
+  <si>
+    <t>سرو چیست</t>
+  </si>
+  <si>
+    <t>کاربرد</t>
+  </si>
+  <si>
+    <t>ساختار داخلی</t>
+  </si>
+  <si>
+    <t>انواع سرو</t>
+  </si>
+  <si>
+    <t>سرو 180</t>
+  </si>
+  <si>
+    <t>سرو 360</t>
+  </si>
+  <si>
+    <t>کتابخانه سرو</t>
+  </si>
+  <si>
+    <t>توضیح دستورات کتابخانه</t>
+  </si>
+  <si>
+    <t>راه انداختن سرو</t>
+  </si>
+  <si>
+    <t>معرفی موتورها</t>
+  </si>
+  <si>
+    <t>موتور الکتریکی چیست</t>
+  </si>
+  <si>
+    <t>انواع دسته بندی موتورها</t>
+  </si>
+  <si>
+    <t>AC-DC</t>
+  </si>
+  <si>
+    <t>سه فاز - تک فاز</t>
+  </si>
+  <si>
+    <t>دسته بندی بازار</t>
+  </si>
+  <si>
+    <t>براش</t>
+  </si>
+  <si>
+    <t>استپ</t>
+  </si>
+  <si>
+    <t>خصوصیات موتور</t>
+  </si>
+  <si>
+    <t>گشتاور</t>
+  </si>
+  <si>
+    <t>سرعت زاویه</t>
   </si>
 </sst>
 </file>
@@ -1086,9 +1147,6 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>164</v>
-      </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -1100,9 +1158,6 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>165</v>
-      </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -1115,7 +1170,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1128,6 +1183,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>164</v>
+      </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
@@ -1139,6 +1197,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -1150,6 +1211,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="s">
         <v>44</v>
       </c>
@@ -1197,6 +1261,86 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1297,7 +1441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1334,7 +1478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1399,17 +1543,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D12"/>
   <sheetViews>
@@ -1455,7 +1704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1510,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1583,7 +1832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1663,7 +1912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1717,7 +1966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E6"/>
   <sheetViews>
@@ -1800,84 +2049,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/تدریس آردینو.xlsx
+++ b/تدریس آردینو.xlsx
@@ -9,22 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="معرفی موتورها" sheetId="15" r:id="rId2"/>
-    <sheet name="سرو" sheetId="14" r:id="rId3"/>
-    <sheet name="موتور دی سی دو" sheetId="13" r:id="rId4"/>
-    <sheet name="موتور دی سی یک" sheetId="12" r:id="rId5"/>
-    <sheet name="6 انواع متغیر ها" sheetId="10" r:id="rId6"/>
-    <sheet name="5 دکمه" sheetId="9" r:id="rId7"/>
-    <sheet name="4 مقدمه ای بر سریال" sheetId="11" r:id="rId8"/>
-    <sheet name="3 ترانزیستو و رله " sheetId="4" r:id="rId9"/>
-    <sheet name="2 چشمک زن " sheetId="3" r:id="rId10"/>
-    <sheet name="1 معرفی آردینو " sheetId="2" r:id="rId11"/>
-    <sheet name="پیش نیاز" sheetId="7" r:id="rId12"/>
-    <sheet name="مدار منطقی" sheetId="8" r:id="rId13"/>
+    <sheet name="براشلس" sheetId="17" r:id="rId2"/>
+    <sheet name="استپ" sheetId="16" r:id="rId3"/>
+    <sheet name="سرو" sheetId="14" r:id="rId4"/>
+    <sheet name="موتور دی سی دو" sheetId="13" r:id="rId5"/>
+    <sheet name="موتور دی سی یک" sheetId="12" r:id="rId6"/>
+    <sheet name="معرفی موتورها" sheetId="15" r:id="rId7"/>
+    <sheet name="7 کیپد" sheetId="18" r:id="rId8"/>
+    <sheet name="6 انواع متغیر ها" sheetId="10" r:id="rId9"/>
+    <sheet name="5 دکمه" sheetId="9" r:id="rId10"/>
+    <sheet name="4 مقدمه ای بر سریال" sheetId="11" r:id="rId11"/>
+    <sheet name="3 ترانزیستو و رله " sheetId="4" r:id="rId12"/>
+    <sheet name="2 چشمک زن " sheetId="3" r:id="rId13"/>
+    <sheet name="1 معرفی آردینو " sheetId="2" r:id="rId14"/>
+    <sheet name="پیش نیاز" sheetId="7" r:id="rId15"/>
+    <sheet name="مدار منطقی" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="216">
   <si>
     <t>معرفی اردینو</t>
   </si>
@@ -642,6 +645,48 @@
   </si>
   <si>
     <t>سرعت زاویه</t>
+  </si>
+  <si>
+    <t>تنوع بازار</t>
+  </si>
+  <si>
+    <t>کتابخانه چیست</t>
+  </si>
+  <si>
+    <t>نصب کتابخانه</t>
+  </si>
+  <si>
+    <t>از طریق library</t>
+  </si>
+  <si>
+    <t>از طریق ide</t>
+  </si>
+  <si>
+    <t>کتابخانه کیپد</t>
+  </si>
+  <si>
+    <t>تعریف ماتریس</t>
+  </si>
+  <si>
+    <t>تعریف کیپد</t>
+  </si>
+  <si>
+    <t>دستورات کیپد</t>
+  </si>
+  <si>
+    <t>getKey</t>
+  </si>
+  <si>
+    <t>waitForKey</t>
+  </si>
+  <si>
+    <t>setHoldTime</t>
+  </si>
+  <si>
+    <t>setDebounceTime</t>
+  </si>
+  <si>
+    <t>اتصال پین ها</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,6 +1306,225 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
+    <col min="7" max="7" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1340,7 +1604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1441,7 +1705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1478,7 +1742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -1543,69 +1807,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1658,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:D12"/>
   <sheetViews>
@@ -1704,7 +1928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1759,7 +1983,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1830,223 +2193,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E6"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="31.375" customWidth="1"/>
-    <col min="7" max="7" width="28.125" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/تدریس آردینو.xlsx
+++ b/تدریس آردینو.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\M\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\github repository\github repository\arduinotadris\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A848A24D-5822-4B2D-B5F4-BC7D175E7106}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="878" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,23 @@
     <sheet name="موتور دی سی دو" sheetId="13" r:id="rId5"/>
     <sheet name="موتور دی سی یک" sheetId="12" r:id="rId6"/>
     <sheet name="معرفی موتورها" sheetId="15" r:id="rId7"/>
-    <sheet name="7 کیپد" sheetId="18" r:id="rId8"/>
-    <sheet name="6 انواع متغیر ها" sheetId="10" r:id="rId9"/>
-    <sheet name="5 دکمه" sheetId="9" r:id="rId10"/>
-    <sheet name="4 مقدمه ای بر سریال" sheetId="11" r:id="rId11"/>
-    <sheet name="3 ترانزیستو و رله " sheetId="4" r:id="rId12"/>
-    <sheet name="2 چشمک زن " sheetId="3" r:id="rId13"/>
-    <sheet name="1 معرفی آردینو " sheetId="2" r:id="rId14"/>
-    <sheet name="پیش نیاز" sheetId="7" r:id="rId15"/>
-    <sheet name="مدار منطقی" sheetId="8" r:id="rId16"/>
+    <sheet name="11 انالوگ دماسنجی" sheetId="28" r:id="rId8"/>
+    <sheet name="10 انالوگ مقاومت متغیر" sheetId="27" r:id="rId9"/>
+    <sheet name="تمرین فصل 3" sheetId="25" r:id="rId10"/>
+    <sheet name="9نمایشگر کاراکتری" sheetId="24" r:id="rId11"/>
+    <sheet name="8 سریال قسمت دوم" sheetId="21" r:id="rId12"/>
+    <sheet name="7 کیپد" sheetId="18" r:id="rId13"/>
+    <sheet name="تمرین فصل 2" sheetId="23" r:id="rId14"/>
+    <sheet name="6 انواع متغیر ها" sheetId="10" r:id="rId15"/>
+    <sheet name="5 دکمه" sheetId="9" r:id="rId16"/>
+    <sheet name="4 سریال قسمت اول" sheetId="11" r:id="rId17"/>
+    <sheet name="تمرین فصل 1" sheetId="22" r:id="rId18"/>
+    <sheet name="3 ترانزیستو و رله " sheetId="4" r:id="rId19"/>
+    <sheet name="2 چشمک زن " sheetId="3" r:id="rId20"/>
+    <sheet name="1 معرفی آردینو " sheetId="2" r:id="rId21"/>
+    <sheet name="پیش نیاز برنامه نویسی" sheetId="26" r:id="rId22"/>
+    <sheet name="پیش نیاز الکتریکی" sheetId="7" r:id="rId23"/>
+    <sheet name="مدار منطقی" sheetId="8" r:id="rId24"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="285">
   <si>
     <t>معرفی اردینو</t>
   </si>
@@ -455,9 +464,6 @@
     <t>انواع متغیر</t>
   </si>
   <si>
-    <t xml:space="preserve">مقدمه ای بر سریال </t>
-  </si>
-  <si>
     <t>متغیر چیست</t>
   </si>
   <si>
@@ -687,27 +693,255 @@
   </si>
   <si>
     <t>اتصال پین ها</t>
+  </si>
+  <si>
+    <t>یادآوری از سریال چیست</t>
+  </si>
+  <si>
+    <t>Serial.print</t>
+  </si>
+  <si>
+    <t>Serial.println</t>
+  </si>
+  <si>
+    <t>کانکشن یو اس بی UART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کانکشن یو اس بی </t>
+  </si>
+  <si>
+    <t>اول می شود در سریال مانیتور تایپ کرد</t>
+  </si>
+  <si>
+    <t>Serial.read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get a character </t>
+  </si>
+  <si>
+    <t>پروژک 1: گرفتن عدد اعشاری و نشان دادن سریال</t>
+  </si>
+  <si>
+    <t>چراغ راهنمایی رانندگی</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازی حافظه </t>
+  </si>
+  <si>
+    <t>فصل 1</t>
+  </si>
+  <si>
+    <t>فصل 2</t>
+  </si>
+  <si>
+    <t>فصل 3</t>
+  </si>
+  <si>
+    <t>سریال قسمت 1</t>
+  </si>
+  <si>
+    <t>سریال قسمت 2</t>
+  </si>
+  <si>
+    <t>نمایش داده سخت افزاری</t>
+  </si>
+  <si>
+    <t>معرفی نمایشگر و انواع آن</t>
+  </si>
+  <si>
+    <t>کتابخانه مخصوص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دستورات کتابخانه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">begin </t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set curser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">print </t>
+  </si>
+  <si>
+    <t>println</t>
+  </si>
+  <si>
+    <t>بستن مدار الکتریکی</t>
+  </si>
+  <si>
+    <t>کنتراست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نویز و مشکلات فنی </t>
+  </si>
+  <si>
+    <t>ریست کردن</t>
+  </si>
+  <si>
+    <t>تغذیه درست</t>
+  </si>
+  <si>
+    <t>پروژک1: دستورات راست به چپ نمایش دادن داده</t>
+  </si>
+  <si>
+    <t>scroll display left and right</t>
+  </si>
+  <si>
+    <t>نمایش داده گرفته شده از سریال در ال سی دی</t>
+  </si>
+  <si>
+    <t>سیستم اعلام وضعیت تعریف بشه</t>
+  </si>
+  <si>
+    <t>بخش اول: نمایش پیام های وضعیتی</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سیستم شامل یک فن رله دماسنج</t>
+  </si>
+  <si>
+    <t>اگر خنک نشد رله قطع</t>
+  </si>
+  <si>
+    <t>روشن شدن ال ای دی قرمز</t>
+  </si>
+  <si>
+    <t>منتظر برای زدن کلید ریستارد روی برد</t>
+  </si>
+  <si>
+    <t>اگر از دمای بیشتر شد فن شروع به کار نمایش دما و ساعت</t>
+  </si>
+  <si>
+    <t>نمایش ارور (نمایش دمای و ساعت مشکل)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if and else </t>
+  </si>
+  <si>
+    <t>else if</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>ریختن اعداد در ارایه و نمایش در سریال</t>
+  </si>
+  <si>
+    <t>کد ال ای دی فشاری (case)</t>
+  </si>
+  <si>
+    <t>کد ال ای دی وضعیتی(case)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t xml:space="preserve">else </t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>do while</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>مقاومت متغیر چیست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انواع آن </t>
+  </si>
+  <si>
+    <t>محوه عملکر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مدار بستن </t>
+  </si>
+  <si>
+    <t>انالوگ چیست</t>
+  </si>
+  <si>
+    <t>analog pins</t>
+  </si>
+  <si>
+    <t>analog read</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>خواندن و نمایش مقاومت متغیر</t>
+  </si>
+  <si>
+    <t>دماسنجی چیست</t>
+  </si>
+  <si>
+    <t>انواعش</t>
+  </si>
+  <si>
+    <t>نوع 1</t>
+  </si>
+  <si>
+    <t>نوع 2</t>
+  </si>
+  <si>
+    <t>خواندن دما توسط تابع مربوطه</t>
+  </si>
+  <si>
+    <t>نمایش دما توسط تابع مربوطه</t>
+  </si>
+  <si>
+    <t>روشن کردن رله توسط تابع مربوطه</t>
+  </si>
+  <si>
+    <t>خاموش کردن رله توسط تابع مربوطه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -722,11 +956,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,26 +1277,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView rightToLeft="1" topLeftCell="B3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="46.25" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="46.21875" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
-    <col min="6" max="6" width="35.375" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>163</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1071,9 +1308,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1085,8 +1325,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C3" t="s">
@@ -1099,9 +1339,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>138</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1113,12 +1353,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1127,8 +1370,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C6" t="s">
@@ -1141,8 +1384,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
@@ -1155,9 +1398,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1169,7 +1415,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
@@ -1180,7 +1429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>26</v>
       </c>
@@ -1191,7 +1440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>29</v>
       </c>
@@ -1202,7 +1451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>32</v>
       </c>
@@ -1213,9 +1462,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -1227,9 +1476,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1241,9 +1490,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1255,7 +1504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1269,7 +1518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>47</v>
       </c>
@@ -1280,24 +1529,24 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1306,78 +1555,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{937CE524-70C5-4601-9EBC-BBFE9839F361}">
+  <dimension ref="B4:C10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView rightToLeft="1" topLeftCell="B4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>120</v>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>248</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" t="s">
-        <v>160</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1386,52 +1612,91 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1925A61-9EF7-47E2-A0E2-F6AD41928642}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView rightToLeft="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>159</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1440,27 +1705,442 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA2EF03-26B6-4A16-8247-C10D332EC86A}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB03A41-7BDA-4C2E-B5C8-9F9208CA9743}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E6171B-9874-4246-9DF9-E0B1FB5B2F63}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" zoomScale="246" zoomScaleNormal="246" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="31.375" customWidth="1"/>
-    <col min="7" max="7" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>115</v>
@@ -1472,7 +2152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -1486,7 +2166,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>89</v>
       </c>
@@ -1497,7 +2177,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>111</v>
       </c>
@@ -1505,7 +2185,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>112</v>
       </c>
@@ -1513,7 +2193,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>113</v>
       </c>
@@ -1524,24 +2204,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -1555,7 +2247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -1569,7 +2261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -1583,7 +2275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>134</v>
       </c>
@@ -1594,7 +2286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>72</v>
       </c>
@@ -1604,26 +2296,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1646,7 +2338,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>58</v>
       </c>
@@ -1660,7 +2352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>60</v>
       </c>
@@ -1671,7 +2363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>61</v>
       </c>
@@ -1682,7 +2374,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>62</v>
       </c>
@@ -1690,12 +2382,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
         <v>69</v>
       </c>
@@ -1705,36 +2397,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061CBB6F-33FD-4CBD-92E8-9C411BFBFFF7}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>96</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -1742,20 +2444,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -1784,7 +2523,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -1792,7 +2531,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -1805,76 +2544,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>182</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>185</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>188</v>
       </c>
-      <c r="D1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>183</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1883,44 +2610,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A10:D12"/>
   <sheetViews>
     <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>177</v>
-      </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1929,53 +2656,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>167</v>
       </c>
-      <c r="B1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1984,59 +2711,59 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
         <v>192</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>195</v>
-      </c>
-      <c r="C3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>196</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -2048,73 +2775,52 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA39231F-AA08-4510-858A-6A9B3894352B}">
+  <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>206</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>278</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>214</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2123,71 +2829,55 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29C4EB7-D7D1-4CCB-A3C0-D47C1B04EB16}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView rightToLeft="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="C1" t="s">
-        <v>147</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>145</v>
+        <v>268</v>
+      </c>
+      <c r="C2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/تدریس آردینو.xlsx
+++ b/تدریس آردینو.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\github repository\github repository\arduinotadris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A848A24D-5822-4B2D-B5F4-BC7D175E7106}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20E110B3-E340-481F-8321-1A2FE474B2F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="878" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="286">
   <si>
     <t>معرفی اردینو</t>
   </si>
@@ -903,6 +903,9 @@
   </si>
   <si>
     <t>خاموش کردن رله توسط تابع مربوطه</t>
+  </si>
+  <si>
+    <t>nothing</t>
   </si>
 </sst>
 </file>
@@ -2776,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA39231F-AA08-4510-858A-6A9B3894352B}">
-  <dimension ref="A3:D6"/>
+  <dimension ref="A3:E6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2791,7 +2794,7 @@
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -2804,8 +2807,11 @@
       <c r="D3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>278</v>
       </c>
@@ -2813,12 +2819,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>284</v>
       </c>
